--- a/GUIs/todo.xlsx
+++ b/GUIs/todo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saad/Desktop/nasaDataViz/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saad/Desktop/nasaDataViz/NASA/GUIs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBB8440-FD27-CD46-A50D-B4F96B5C9300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C56D9F8-73D5-044B-96AE-5B5E7F33720F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="460" windowWidth="10000" windowHeight="16240" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
+    <workbookView xWindow="8240" yWindow="460" windowWidth="20560" windowHeight="16240" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
   </bookViews>
   <sheets>
     <sheet name="MCP" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/GUIs/todo.xlsx
+++ b/GUIs/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saad/Desktop/nasaDataViz/NASA/GUIs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C56D9F8-73D5-044B-96AE-5B5E7F33720F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7695B8D7-2952-2F4F-B853-37C8EF743FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="460" windowWidth="20560" windowHeight="16240" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
+    <workbookView xWindow="17060" yWindow="460" windowWidth="11740" windowHeight="16220" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
   </bookViews>
   <sheets>
     <sheet name="MCP" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,14 +388,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,12 +412,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -454,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,7 +451,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,7 +768,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,7 +815,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
@@ -850,7 +837,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
@@ -872,7 +859,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
@@ -890,7 +877,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -908,7 +895,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
@@ -926,7 +913,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
@@ -944,7 +931,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
@@ -962,7 +949,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
@@ -980,7 +967,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
@@ -998,7 +985,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1016,7 +1003,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1021,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
@@ -1052,7 +1039,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1070,7 +1057,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
@@ -1088,7 +1075,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
@@ -1106,7 +1093,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1124,7 +1111,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
@@ -1142,7 +1129,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
@@ -1160,7 +1147,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
         <v>51</v>
       </c>
@@ -1178,7 +1165,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1196,7 +1183,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
         <v>53</v>
       </c>
@@ -1214,7 +1201,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
@@ -1232,7 +1219,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="4" t="s">
         <v>55</v>
       </c>

--- a/GUIs/todo.xlsx
+++ b/GUIs/todo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saad/Desktop/nasaDataViz/NASA/GUIs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7695B8D7-2952-2F4F-B853-37C8EF743FC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997C4984-C522-8A4B-932A-7A2F967DA81F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="460" windowWidth="11740" windowHeight="16220" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11740" windowHeight="16220" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
   </bookViews>
   <sheets>
     <sheet name="MCP" sheetId="1" r:id="rId1"/>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B38FCA-31BC-F248-B08A-2E75EBF689E8}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1201,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
@@ -1219,7 +1219,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
         <v>55</v>
       </c>

--- a/GUIs/todo.xlsx
+++ b/GUIs/todo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saad/Desktop/nasaDataViz/NASA/GUIs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997C4984-C522-8A4B-932A-7A2F967DA81F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C33AD-3BBC-8B4E-8AA0-55B4A5FBA3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="11740" windowHeight="16220" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
+    <workbookView xWindow="14260" yWindow="460" windowWidth="14540" windowHeight="16220" activeTab="1" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
   </bookViews>
   <sheets>
     <sheet name="MCP" sheetId="1" r:id="rId1"/>
-    <sheet name="Notes" sheetId="2" r:id="rId2"/>
+    <sheet name="PFD" sheetId="3" r:id="rId2"/>
+    <sheet name="Notes" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="154">
   <si>
     <t>Heading</t>
   </si>
@@ -353,6 +354,147 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>PFD Inputs</t>
+  </si>
+  <si>
+    <t>A/T Engaged Mode Capt And F/O</t>
+  </si>
+  <si>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <t>at_eng_mode</t>
+  </si>
+  <si>
+    <t>Roll Engaged Mode F/O</t>
+  </si>
+  <si>
+    <t>Roll Armed Mode F/O</t>
+  </si>
+  <si>
+    <t>Pitch Engaged Mode F/O</t>
+  </si>
+  <si>
+    <t>Pitch Armed Mode F.O</t>
+  </si>
+  <si>
+    <t>CWS P Engaged Mode F/O</t>
+  </si>
+  <si>
+    <t>CWS R Engaged Mode F/O</t>
+  </si>
+  <si>
+    <t>A/P Status F/O</t>
+  </si>
+  <si>
+    <t>fo_roll_eng</t>
+  </si>
+  <si>
+    <t>fo_roll_arm</t>
+  </si>
+  <si>
+    <t>fo_pit_eng</t>
+  </si>
+  <si>
+    <t>fo_pit_arm</t>
+  </si>
+  <si>
+    <t>fo_cws_pit</t>
+  </si>
+  <si>
+    <t>fo_cws_roll</t>
+  </si>
+  <si>
+    <t>fo_ap_stat</t>
+  </si>
+  <si>
+    <t>Pitch CMD Dev #2</t>
+  </si>
+  <si>
+    <t>Roll CMD Dev #2</t>
+  </si>
+  <si>
+    <t>ILS #2 GS Dev</t>
+  </si>
+  <si>
+    <t>ILS #2 Loc Dev</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>fo_cmd_pit_dev</t>
+  </si>
+  <si>
+    <t>fo_cmd_roll_dev</t>
+  </si>
+  <si>
+    <t>ils_2_gs_dev</t>
+  </si>
+  <si>
+    <t>ils_2_loc_dev</t>
+  </si>
+  <si>
+    <t>Baro Current (MB)</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>fo_ef_baro_cur</t>
+  </si>
+  <si>
+    <t>Calibrated Airspeed</t>
+  </si>
+  <si>
+    <t>Knots</t>
+  </si>
+  <si>
+    <t>cal_as</t>
+  </si>
+  <si>
+    <t>Rate of Climb</t>
+  </si>
+  <si>
+    <t>Pressure Altitude</t>
+  </si>
+  <si>
+    <t>Feet/Minute</t>
+  </si>
+  <si>
+    <t>rate_of_clb</t>
+  </si>
+  <si>
+    <t>pres_alt</t>
+  </si>
+  <si>
+    <t>Radio Altitude</t>
+  </si>
+  <si>
+    <t>Roll Angle</t>
+  </si>
+  <si>
+    <t>Heading Angle</t>
+  </si>
+  <si>
+    <t>Pitch Angle</t>
+  </si>
+  <si>
+    <t>radio_alt</t>
+  </si>
+  <si>
+    <t>pitch_angle</t>
+  </si>
+  <si>
+    <t>roll_angle</t>
+  </si>
+  <si>
+    <t>hdg_angle</t>
+  </si>
+  <si>
+    <t>Att_I</t>
   </si>
 </sst>
 </file>
@@ -767,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B38FCA-31BC-F248-B08A-2E75EBF689E8}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1530,6 +1672,444 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA7C3AC-9CE1-A44B-9ADC-5FED764E11F4}">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="4">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="4">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="4">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="4">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="4">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="4">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="4">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="4">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="4">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="4">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="4">
+        <v>87</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="4">
+        <v>102</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="4">
+        <v>105</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="4">
+        <v>106</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="4">
+        <v>108</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="4">
+        <v>109</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="4">
+        <v>110</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="4">
+        <v>111</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF80F8DD-BF1A-2F4A-8C9D-87A9B3DD25BE}">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/GUIs/todo.xlsx
+++ b/GUIs/todo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saad/Desktop/nasaDataViz/NASA/GUIs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8C33AD-3BBC-8B4E-8AA0-55B4A5FBA3F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2703A1C7-CB8B-1040-862B-6AB45343EE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="460" windowWidth="14540" windowHeight="16220" activeTab="1" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
+    <workbookView xWindow="14260" yWindow="460" windowWidth="14540" windowHeight="16220" activeTab="2" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
   </bookViews>
   <sheets>
     <sheet name="MCP" sheetId="1" r:id="rId1"/>
     <sheet name="PFD" sheetId="3" r:id="rId2"/>
-    <sheet name="Notes" sheetId="2" r:id="rId3"/>
+    <sheet name="ND" sheetId="4" r:id="rId3"/>
+    <sheet name="Notes" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="186">
   <si>
     <t>Heading</t>
   </si>
@@ -495,6 +496,102 @@
   </si>
   <si>
     <t>Att_I</t>
+  </si>
+  <si>
+    <t>ND Inputs</t>
+  </si>
+  <si>
+    <t>ND Mode</t>
+  </si>
+  <si>
+    <t>fo_ef_nd_mode</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>True Airspeed</t>
+  </si>
+  <si>
+    <t>Ground speed</t>
+  </si>
+  <si>
+    <t>Note #6</t>
+  </si>
+  <si>
+    <t>true_as</t>
+  </si>
+  <si>
+    <t>gnd_spd</t>
+  </si>
+  <si>
+    <t>fo_ef_rnge</t>
+  </si>
+  <si>
+    <t>Aircraft Latitude</t>
+  </si>
+  <si>
+    <t>Aircraft Longitude</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>Magnetic Track Angle</t>
+  </si>
+  <si>
+    <t>Magnetic Heading Angle</t>
+  </si>
+  <si>
+    <t>mag_track_angle</t>
+  </si>
+  <si>
+    <t>mag_hdg_angle</t>
+  </si>
+  <si>
+    <t>Wind Direction At Craft</t>
+  </si>
+  <si>
+    <t>Wind Speed At Craft</t>
+  </si>
+  <si>
+    <t>wind_dir_at_ac</t>
+  </si>
+  <si>
+    <t>wind_spd_at_ac</t>
+  </si>
+  <si>
+    <t>F/O Displaying VSD</t>
+  </si>
+  <si>
+    <t>fo_vsd_on</t>
+  </si>
+  <si>
+    <t>F/O Below Glideslope</t>
+  </si>
+  <si>
+    <t>fo_bel_gs_lt</t>
+  </si>
+  <si>
+    <t>Dead Arinc Bus</t>
+  </si>
+  <si>
+    <t>App selected</t>
+  </si>
+  <si>
+    <t>Vor Selected</t>
+  </si>
+  <si>
+    <t>Map Selected</t>
+  </si>
+  <si>
+    <t>Plan selected</t>
   </si>
 </sst>
 </file>
@@ -910,7 +1007,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1675,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA7C3AC-9CE1-A44B-9ADC-5FED764E11F4}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1893,7 +1990,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>127</v>
       </c>
@@ -1909,7 +2006,7 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>128</v>
       </c>
@@ -2110,11 +2207,281 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A684392-FC78-8D4C-91A2-A57AFC668421}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="4">
+        <v>90</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="4">
+        <v>92</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="4">
+        <v>103</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="4">
+        <v>104</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="4">
+        <v>111</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="4">
+        <v>116</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="4">
+        <v>117</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="4">
+        <v>119</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="4">
+        <v>120</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="4">
+        <v>158</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="4">
+        <v>159</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="4">
+        <v>194</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="4">
+        <v>212</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF80F8DD-BF1A-2F4A-8C9D-87A9B3DD25BE}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2169,6 +2536,59 @@
         <v>102</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GUIs/todo.xlsx
+++ b/GUIs/todo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saad/Desktop/nasaDataViz/NASA/GUIs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2703A1C7-CB8B-1040-862B-6AB45343EE85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789D9F53-6C48-FF4D-AD58-5B8E928C8944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14260" yWindow="460" windowWidth="14540" windowHeight="16220" activeTab="2" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
+    <workbookView xWindow="14260" yWindow="460" windowWidth="14540" windowHeight="16220" xr2:uid="{18DB9649-71BC-4344-B476-FE1CADB6EB15}"/>
   </bookViews>
   <sheets>
     <sheet name="MCP" sheetId="1" r:id="rId1"/>
@@ -1006,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B38FCA-31BC-F248-B08A-2E75EBF689E8}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1476,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
+      <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
         <v>62</v>
       </c>
@@ -1494,7 +1494,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
+      <c r="A28" s="5"/>
       <c r="B28" s="4" t="s">
         <v>63</v>
       </c>
@@ -1512,7 +1512,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
         <v>68</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
         <v>69</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="4" t="s">
         <v>72</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="4" t="s">
         <v>73</v>
       </c>
@@ -1584,7 +1584,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="4" t="s">
         <v>74</v>
       </c>
@@ -1602,7 +1602,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
+      <c r="A34" s="5"/>
       <c r="B34" s="4" t="s">
         <v>75</v>
       </c>
@@ -1620,7 +1620,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
+      <c r="A35" s="5"/>
       <c r="B35" s="4" t="s">
         <v>76</v>
       </c>
@@ -1638,7 +1638,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="4" t="s">
         <v>77</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="4" t="s">
         <v>78</v>
       </c>
@@ -1674,7 +1674,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="4" t="s">
         <v>87</v>
       </c>
@@ -1692,7 +1692,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="4" t="s">
         <v>88</v>
       </c>
@@ -1710,7 +1710,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="4" t="s">
         <v>89</v>
       </c>
@@ -1728,7 +1728,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
+      <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
         <v>90</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="4" t="s">
         <v>95</v>
       </c>
@@ -1772,7 +1772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA7C3AC-9CE1-A44B-9ADC-5FED764E11F4}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I5"/>
     </sheetView>
   </sheetViews>
@@ -2210,7 +2210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A684392-FC78-8D4C-91A2-A57AFC668421}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -2256,7 +2256,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>155</v>
       </c>
@@ -2276,7 +2276,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>157</v>
       </c>
@@ -2296,7 +2296,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>159</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
         <v>160</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="4" t="s">
         <v>147</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>165</v>
       </c>
@@ -2360,7 +2360,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
         <v>166</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
         <v>169</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>170</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
         <v>173</v>
       </c>
@@ -2424,7 +2424,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>174</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
         <v>177</v>
       </c>
@@ -2456,7 +2456,7 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
         <v>179</v>
       </c>
